--- a/data/trans_orig/P1435_2011_2023-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P1435_2011_2023-Provincia-trans_orig.xlsx
@@ -742,7 +742,7 @@
         <v>293772</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>289521</v>
+        <v>289828</v>
       </c>
       <c r="F4" s="5" t="n">
         <v>294738</v>
@@ -751,7 +751,7 @@
         <v>0.9967223564481406</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9823006374373447</v>
+        <v>0.9833412206120844</v>
       </c>
       <c r="I4" s="6" t="n">
         <v>1</v>
@@ -763,19 +763,19 @@
         <v>281940</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>274691</v>
+        <v>275583</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>285134</v>
+        <v>285159</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9815326559920284</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9562965639835558</v>
+        <v>0.9594017007818897</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9926509755038683</v>
+        <v>0.992737972810819</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>532</v>
@@ -784,19 +784,19 @@
         <v>575712</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>568368</v>
+        <v>569048</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>579823</v>
+        <v>579763</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9892252899030737</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9766061583261416</v>
+        <v>0.9777741669966223</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9962893145061121</v>
+        <v>0.9961856359125039</v>
       </c>
     </row>
     <row r="5">
@@ -816,7 +816,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5217</v>
+        <v>4910</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.003277643551859448</v>
@@ -825,7 +825,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.01769936256265417</v>
+        <v>0.01665877938791555</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -834,19 +834,19 @@
         <v>5305</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2111</v>
+        <v>2086</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>12554</v>
+        <v>11662</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01846734400797155</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.007349024496131665</v>
+        <v>0.007262027189181012</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04370343601644434</v>
+        <v>0.0405982992181104</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>6</v>
@@ -855,19 +855,19 @@
         <v>6271</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2160</v>
+        <v>2220</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>13615</v>
+        <v>12935</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.01077471009692629</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.003710685493887783</v>
+        <v>0.003814364087496135</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.02339384167385835</v>
+        <v>0.02222583300337763</v>
       </c>
     </row>
     <row r="6">
@@ -959,19 +959,19 @@
         <v>501477</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>495110</v>
+        <v>496324</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>504477</v>
+        <v>504539</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.991987647548483</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9793932290548688</v>
+        <v>0.9817946648741589</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9979229335153659</v>
+        <v>0.9980456526927746</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>461</v>
@@ -980,19 +980,19 @@
         <v>501589</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>490045</v>
+        <v>489199</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>510325</v>
+        <v>509945</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9576611778905301</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9356202501452502</v>
+        <v>0.9340054672701624</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.974340065725726</v>
+        <v>0.9736142552306453</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>929</v>
@@ -1001,19 +1001,19 @@
         <v>1003066</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>989357</v>
+        <v>989996</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1011518</v>
+        <v>1012526</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9745203020663661</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9612016511677501</v>
+        <v>0.9618226779541198</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9827313563742193</v>
+        <v>0.9837109385729916</v>
       </c>
     </row>
     <row r="8">
@@ -1030,19 +1030,19 @@
         <v>4050</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1050</v>
+        <v>988</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>10417</v>
+        <v>9203</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.00801235245151697</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.002077066484634169</v>
+        <v>0.001954347307225412</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02060677094513124</v>
+        <v>0.0182053351258412</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>19</v>
@@ -1051,19 +1051,19 @@
         <v>22176</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>13440</v>
+        <v>13820</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>33720</v>
+        <v>34566</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.04233882210946998</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02565993427427387</v>
+        <v>0.02638574476935451</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.06437974985474951</v>
+        <v>0.0659945327298372</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>23</v>
@@ -1072,19 +1072,19 @@
         <v>26226</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>17774</v>
+        <v>16766</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>39935</v>
+        <v>39296</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02547969793363396</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0172686436257806</v>
+        <v>0.01628906142700839</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03879834883224983</v>
+        <v>0.03817732204587981</v>
       </c>
     </row>
     <row r="9">
@@ -1189,19 +1189,19 @@
         <v>328283</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>317265</v>
+        <v>318916</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>334146</v>
+        <v>334218</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9626494570322744</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.9303423471938101</v>
+        <v>0.9351820885570677</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9798433885577716</v>
+        <v>0.9800550560661679</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>625</v>
@@ -1210,19 +1210,19 @@
         <v>652329</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>641772</v>
+        <v>642130</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>658223</v>
+        <v>658293</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.9808480928262069</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9649745543243142</v>
+        <v>0.965512539007692</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9897111487589493</v>
+        <v>0.9898156269114151</v>
       </c>
     </row>
     <row r="11">
@@ -1252,19 +1252,19 @@
         <v>12737</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6874</v>
+        <v>6802</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>23755</v>
+        <v>22104</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.0373505429677255</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.02015661144222831</v>
+        <v>0.019944943933832</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.06965765280618996</v>
+        <v>0.06481791144293191</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>11</v>
@@ -1273,19 +1273,19 @@
         <v>12737</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>6843</v>
+        <v>6773</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>23294</v>
+        <v>22936</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01915190717379311</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01028885124105077</v>
+        <v>0.01018437308858489</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03502544567568584</v>
+        <v>0.03448746099230861</v>
       </c>
     </row>
     <row r="12">
@@ -1377,19 +1377,19 @@
         <v>371054</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>365309</v>
+        <v>366314</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>373064</v>
+        <v>373060</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.9921703967603339</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9768101114152481</v>
+        <v>0.979496384877019</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.9975452139354987</v>
+        <v>0.9975359219436074</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>348</v>
@@ -1398,19 +1398,19 @@
         <v>365772</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>355675</v>
+        <v>356524</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>373033</v>
+        <v>373835</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.9404053140691234</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.9144472113610719</v>
+        <v>0.916630802337019</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.959074755350551</v>
+        <v>0.9611368243011844</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>689</v>
@@ -1419,19 +1419,19 @@
         <v>736825</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>724297</v>
+        <v>725908</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>745003</v>
+        <v>745949</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.9657800354303969</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.9493592016669327</v>
+        <v>0.9514706996349269</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9764985967998944</v>
+        <v>0.9777390291771363</v>
       </c>
     </row>
     <row r="14">
@@ -1448,19 +1448,19 @@
         <v>2928</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8673</v>
+        <v>7668</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.007829603239666128</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.002454786064501322</v>
+        <v>0.002464078056392614</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02318988858475259</v>
+        <v>0.02050361512298212</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>23</v>
@@ -1469,19 +1469,19 @@
         <v>23179</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>15918</v>
+        <v>15116</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>33276</v>
+        <v>32427</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0595946859308766</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.04092524464944896</v>
+        <v>0.03886317569881553</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.0855527886389271</v>
+        <v>0.08336919766298086</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>26</v>
@@ -1490,19 +1490,19 @@
         <v>26108</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>17930</v>
+        <v>16984</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>38636</v>
+        <v>37025</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03421996456960311</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02350140320010571</v>
+        <v>0.02226097082286376</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05064079833306744</v>
+        <v>0.04852930036507316</v>
       </c>
     </row>
     <row r="15">
@@ -1607,19 +1607,19 @@
         <v>209284</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>202088</v>
+        <v>201115</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>214370</v>
+        <v>214369</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.9530642286045533</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.9202913461455645</v>
+        <v>0.9158624275215769</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.976221782073753</v>
+        <v>0.9762201863262806</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>398</v>
@@ -1628,19 +1628,19 @@
         <v>421902</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>413584</v>
+        <v>413110</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>426915</v>
+        <v>427007</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.976153499724063</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9569072284199366</v>
+        <v>0.9558102276583345</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9877513120716975</v>
+        <v>0.9879646981863714</v>
       </c>
     </row>
     <row r="17">
@@ -1670,19 +1670,19 @@
         <v>10307</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5221</v>
+        <v>5222</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>17503</v>
+        <v>18476</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04693577139544674</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.02377821792624705</v>
+        <v>0.02377981367371942</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07970865385443582</v>
+        <v>0.08413757247842357</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>10</v>
@@ -1691,19 +1691,19 @@
         <v>10307</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>5294</v>
+        <v>5202</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>18625</v>
+        <v>19099</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.02384650027593704</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.01224868792830236</v>
+        <v>0.01203530181362858</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.04309277158006331</v>
+        <v>0.04418977234166531</v>
       </c>
     </row>
     <row r="18">
@@ -1795,7 +1795,7 @@
         <v>272945</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>268894</v>
+        <v>268854</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>273981</v>
@@ -1804,7 +1804,7 @@
         <v>0.9962169267145604</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.9814338207572131</v>
+        <v>0.9812853297242542</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>1</v>
@@ -1816,19 +1816,19 @@
         <v>271780</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>262535</v>
+        <v>264549</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>275940</v>
+        <v>276054</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.9705363966246643</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.9375200807418194</v>
+        <v>0.9447117582834724</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9853905681886392</v>
+        <v>0.9857972443693316</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>521</v>
@@ -1837,19 +1837,19 @@
         <v>544725</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>536414</v>
+        <v>537393</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>549127</v>
+        <v>549770</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.9832364417233018</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.9682350026585963</v>
+        <v>0.970003299638344</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.991182685456088</v>
+        <v>0.9923433075180406</v>
       </c>
     </row>
     <row r="20">
@@ -1869,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>5087</v>
+        <v>5127</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.003783073285439625</v>
@@ -1878,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01856617924278699</v>
+        <v>0.0187146702757458</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>8</v>
@@ -1887,19 +1887,19 @@
         <v>8251</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4091</v>
+        <v>3977</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>17496</v>
+        <v>15482</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02946360337533575</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01460943181136072</v>
+        <v>0.01420275563066845</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.06247991925818064</v>
+        <v>0.05528824171652795</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>9</v>
@@ -1908,19 +1908,19 @@
         <v>9287</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>4885</v>
+        <v>4242</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>17598</v>
+        <v>16619</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01676355827669815</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.008817314543912044</v>
+        <v>0.007656692481959574</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03176499734140398</v>
+        <v>0.02999670036165612</v>
       </c>
     </row>
     <row r="21">
@@ -2012,7 +2012,7 @@
         <v>660755</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>655704</v>
+        <v>655075</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>662788</v>
@@ -2021,7 +2021,7 @@
         <v>0.9969323646001372</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9893121003830737</v>
+        <v>0.9883622737859272</v>
       </c>
       <c r="I22" s="6" t="n">
         <v>1</v>
@@ -2033,19 +2033,19 @@
         <v>666177</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>652947</v>
+        <v>654017</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>676298</v>
+        <v>675909</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9601119674979196</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.9410453789356807</v>
+        <v>0.9425874101121202</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9746991261159165</v>
+        <v>0.9741385924836754</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1227</v>
@@ -2054,19 +2054,19 @@
         <v>1326931</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1313636</v>
+        <v>1313296</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1337404</v>
+        <v>1336588</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9781006016468081</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9683006358079354</v>
+        <v>0.9680494383764022</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9858198880751563</v>
+        <v>0.9852187968210028</v>
       </c>
     </row>
     <row r="23">
@@ -2086,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>7084</v>
+        <v>7713</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.003067635399862812</v>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01068789961692632</v>
+        <v>0.0116377262140719</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>25</v>
@@ -2104,19 +2104,19 @@
         <v>27676</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>17555</v>
+        <v>17944</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>40906</v>
+        <v>39836</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03988803250208042</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02530087388408351</v>
+        <v>0.02586140751632456</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.05895462106431933</v>
+        <v>0.05741258988788046</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>27</v>
@@ -2125,19 +2125,19 @@
         <v>29710</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>19237</v>
+        <v>20053</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>43005</v>
+        <v>43345</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.02189939835319186</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.01418011192484344</v>
+        <v>0.01478120317899704</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.03169936419206463</v>
+        <v>0.03195056162359758</v>
       </c>
     </row>
     <row r="24">
@@ -2242,19 +2242,19 @@
         <v>806731</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>796012</v>
+        <v>797260</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>813802</v>
+        <v>814177</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.9792172662715508</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.9662066050048789</v>
+        <v>0.9677215445146437</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.9877996060556664</v>
+        <v>0.9882555643488188</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1459</v>
@@ -2263,19 +2263,19 @@
         <v>1585829</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1575433</v>
+        <v>1574521</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1592503</v>
+        <v>1592663</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.9893185040183567</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.9828329304090837</v>
+        <v>0.9822639457412309</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.9934817898350515</v>
+        <v>0.993581931718176</v>
       </c>
     </row>
     <row r="26">
@@ -2305,19 +2305,19 @@
         <v>17122</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>10051</v>
+        <v>9676</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>27841</v>
+        <v>26593</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02078273372844924</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01220039394433338</v>
+        <v>0.01174443565118118</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03379339499512105</v>
+        <v>0.03227845548535613</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>15</v>
@@ -2326,19 +2326,19 @@
         <v>17122</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>10448</v>
+        <v>10288</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>27518</v>
+        <v>28430</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01068149598164323</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.006518210164948318</v>
+        <v>0.006418068281824401</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01716706959091628</v>
+        <v>0.01773605425876914</v>
       </c>
     </row>
     <row r="27">
@@ -2430,19 +2430,19 @@
         <v>3415765</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3407825</v>
+        <v>3407883</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>3421668</v>
+        <v>3420897</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.9967858086469044</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.9944687901281295</v>
+        <v>0.9944858884704536</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9985084217263602</v>
+        <v>0.9982834219682057</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3182</v>
@@ -2451,19 +2451,19 @@
         <v>3431556</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3404836</v>
+        <v>3407194</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>3450444</v>
+        <v>3453927</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.9643783931072394</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.9568691022667432</v>
+        <v>0.9575318707150288</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.9696864858975643</v>
+        <v>0.9706653923761921</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>6380</v>
@@ -2472,19 +2472,19 @@
         <v>6847321</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>6823143</v>
+        <v>6820125</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>6870935</v>
+        <v>6868242</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.980276982688427</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.9768155592986175</v>
+        <v>0.9763834999211203</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.9836576211365268</v>
+        <v>0.9832720198367872</v>
       </c>
     </row>
     <row r="29">
@@ -2501,19 +2501,19 @@
         <v>11014</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>5111</v>
+        <v>5882</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>18954</v>
+        <v>18896</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.003214191353095675</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.001491578273639765</v>
+        <v>0.001716578031794266</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.005531209871870509</v>
+        <v>0.005514111529546365</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>116</v>
@@ -2522,19 +2522,19 @@
         <v>126753</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>107865</v>
+        <v>104382</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>153473</v>
+        <v>151115</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.0356216068927606</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.03031351410243513</v>
+        <v>0.02933460762380806</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0431308977332567</v>
+        <v>0.0424681292849714</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>127</v>
@@ -2543,19 +2543,19 @@
         <v>137767</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>114153</v>
+        <v>116846</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>161945</v>
+        <v>164963</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.01972301731157295</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.01634237886347341</v>
+        <v>0.01672798016321282</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.02318444070138259</v>
+        <v>0.02361650007887983</v>
       </c>
     </row>
     <row r="30">
@@ -2891,19 +2891,19 @@
         <v>312991</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>306523</v>
+        <v>307960</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>316344</v>
+        <v>316742</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.9816394939528525</v>
+        <v>0.9816394939528527</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.9613547343877005</v>
+        <v>0.9658609258544193</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.9921548148756048</v>
+        <v>0.9934055634930448</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>504</v>
@@ -2912,19 +2912,19 @@
         <v>296677</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>289213</v>
+        <v>288995</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>302789</v>
+        <v>302313</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.9386711568372658</v>
+        <v>0.9386711568372655</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.9150555647024362</v>
+        <v>0.9143635491527915</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.958007114315222</v>
+        <v>0.9565024542746536</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>829</v>
@@ -2933,19 +2933,19 @@
         <v>609668</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>599082</v>
+        <v>600687</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>617315</v>
+        <v>617323</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.9602495529529671</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.9435754797030335</v>
+        <v>0.94610371723539</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.9722937480014113</v>
+        <v>0.9723062497698338</v>
       </c>
     </row>
     <row r="5">
@@ -2962,19 +2962,19 @@
         <v>5854</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2501</v>
+        <v>2103</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12322</v>
+        <v>10885</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01836050604714744</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.007845185124395299</v>
+        <v>0.006594436506955324</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03864526561229933</v>
+        <v>0.03413907414558046</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>34</v>
@@ -2983,19 +2983,19 @@
         <v>19384</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>13272</v>
+        <v>13748</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>26848</v>
+        <v>27066</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.06132884316273447</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.04199288568477812</v>
+        <v>0.0434975457253469</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.08494443529756396</v>
+        <v>0.08563645084720886</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>40</v>
@@ -3004,19 +3004,19 @@
         <v>25238</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>17591</v>
+        <v>17583</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>35824</v>
+        <v>34219</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.03975044704703296</v>
+        <v>0.03975044704703297</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02770625199858872</v>
+        <v>0.02769375023016634</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.05642452029696653</v>
+        <v>0.05389628276461012</v>
       </c>
     </row>
     <row r="6">
@@ -3108,19 +3108,19 @@
         <v>523570</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>515677</v>
+        <v>515788</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>527416</v>
+        <v>527761</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9885017613759188</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9735994221249883</v>
+        <v>0.9738103384890535</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9957636552590043</v>
+        <v>0.9964153306754925</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>666</v>
@@ -3129,19 +3129,19 @@
         <v>509088</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>496121</v>
+        <v>496390</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>518330</v>
+        <v>518095</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9327210421579702</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.9089637169959404</v>
+        <v>0.909457343487888</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9496540091262192</v>
+        <v>0.9492242732490425</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>1042</v>
@@ -3150,19 +3150,19 @@
         <v>1032657</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1017996</v>
+        <v>1016963</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1042891</v>
+        <v>1042750</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9601925820606882</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9465598791056002</v>
+        <v>0.9455997113359452</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9697080473317767</v>
+        <v>0.9695773953015692</v>
       </c>
     </row>
     <row r="8">
@@ -3179,19 +3179,19 @@
         <v>6090</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2244</v>
+        <v>1899</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>13983</v>
+        <v>13872</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01149823862408114</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.004236344740995493</v>
+        <v>0.003584669324507691</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.02640057787501154</v>
+        <v>0.02618966151094649</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>50</v>
@@ -3200,19 +3200,19 @@
         <v>36721</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>27479</v>
+        <v>27714</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>49688</v>
+        <v>49419</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.06727895784202972</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.0503459908737808</v>
+        <v>0.05077572675095764</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.09103628300405973</v>
+        <v>0.09054265651211246</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>55</v>
@@ -3221,19 +3221,19 @@
         <v>42812</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>32578</v>
+        <v>32719</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>57473</v>
+        <v>58506</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03980741793931167</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.03029195266822354</v>
+        <v>0.03042260469843078</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05344012089440017</v>
+        <v>0.05440028866405575</v>
       </c>
     </row>
     <row r="9">
@@ -3325,19 +3325,19 @@
         <v>310155</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>304709</v>
+        <v>304713</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>313373</v>
+        <v>313169</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.9815253671432302</v>
+        <v>0.9815253671432305</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.9642915315839971</v>
+        <v>0.964302608818478</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.9917098377112659</v>
+        <v>0.9910635321531834</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>492</v>
@@ -3346,19 +3346,19 @@
         <v>329639</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>322072</v>
+        <v>319195</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>337090</v>
+        <v>336856</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.9249619956247113</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.903728463176027</v>
+        <v>0.8956556681061728</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.9458691711911271</v>
+        <v>0.9452134818470822</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>844</v>
@@ -3367,19 +3367,19 @@
         <v>639795</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>628842</v>
+        <v>630379</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>648117</v>
+        <v>648326</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.9515448695209672</v>
+        <v>0.9515448695209671</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.9352547487137337</v>
+        <v>0.9375402704294158</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.9639225146978389</v>
+        <v>0.9642326015296296</v>
       </c>
     </row>
     <row r="11">
@@ -3396,19 +3396,19 @@
         <v>5838</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2620</v>
+        <v>2824</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>11284</v>
+        <v>11280</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01847463285676962</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.008290162288734184</v>
+        <v>0.008936467846816414</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03570846841600286</v>
+        <v>0.03569739118152215</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>44</v>
@@ -3417,19 +3417,19 @@
         <v>26742</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>19291</v>
+        <v>19525</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>34309</v>
+        <v>37186</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.07503800437528868</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05413082880887373</v>
+        <v>0.05478651815291773</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.09627153682397301</v>
+        <v>0.1043443318938273</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>52</v>
@@ -3438,19 +3438,19 @@
         <v>32580</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>24258</v>
+        <v>24049</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>43533</v>
+        <v>41996</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04845513047903292</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03607748530216119</v>
+        <v>0.03576739847037045</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.06474525128626644</v>
+        <v>0.06245972957058443</v>
       </c>
     </row>
     <row r="12">
@@ -3542,16 +3542,16 @@
         <v>371970</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>369342</v>
+        <v>369059</v>
       </c>
       <c r="F13" s="5" t="n">
         <v>373145</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.9968504655668727</v>
+        <v>0.996850465566873</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.9898079098866714</v>
+        <v>0.9890490077426171</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>1</v>
@@ -3563,19 +3563,19 @@
         <v>388195</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>378126</v>
+        <v>378625</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>396789</v>
+        <v>396622</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.9199777666465679</v>
+        <v>0.9199777666465682</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8961148820557669</v>
+        <v>0.897298213276388</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.9403450974246778</v>
+        <v>0.939949003380056</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>834</v>
@@ -3584,19 +3584,19 @@
         <v>760165</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>749086</v>
+        <v>749155</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>769199</v>
+        <v>769196</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.9560542869709854</v>
+        <v>0.9560542869709852</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.9421202695266244</v>
+        <v>0.9422066345934457</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.9674159513532055</v>
+        <v>0.967411434120348</v>
       </c>
     </row>
     <row r="14">
@@ -3616,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>3803</v>
+        <v>4086</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.003149534433127129</v>
@@ -3625,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0101920901133271</v>
+        <v>0.010950992257382</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>55</v>
@@ -3634,19 +3634,19 @@
         <v>33766</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>25172</v>
+        <v>25339</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>43835</v>
+        <v>43336</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.08002223335343209</v>
+        <v>0.08002223335343212</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05965490257532215</v>
+        <v>0.0600509966199439</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1038851179442331</v>
+        <v>0.1027017867236119</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>57</v>
@@ -3655,19 +3655,19 @@
         <v>34942</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>25908</v>
+        <v>25911</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>46021</v>
+        <v>45952</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.04394571302901476</v>
+        <v>0.04394571302901474</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03258404864679474</v>
+        <v>0.03258856587965193</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.05787973047337555</v>
+        <v>0.05779336540655376</v>
       </c>
     </row>
     <row r="15">
@@ -3759,19 +3759,19 @@
         <v>201937</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>195757</v>
+        <v>193811</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>204367</v>
+        <v>204438</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.9818736622290991</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.951826826209728</v>
+        <v>0.9423648812233494</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.9936876717906312</v>
+        <v>0.9940337510931609</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>451</v>
@@ -3780,19 +3780,19 @@
         <v>208837</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>203344</v>
+        <v>202538</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>213808</v>
+        <v>213453</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.9222437906034624</v>
+        <v>0.9222437906034625</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8979823748492</v>
+        <v>0.8944252294072649</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.9441925941884706</v>
+        <v>0.9426245406006347</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>726</v>
@@ -3801,19 +3801,19 @@
         <v>410774</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>403249</v>
+        <v>403344</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>416617</v>
+        <v>416602</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.9506249463629688</v>
+        <v>0.9506249463629691</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.9332111486987074</v>
+        <v>0.9334318336832687</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.9641482277652377</v>
+        <v>0.9641120927316541</v>
       </c>
     </row>
     <row r="17">
@@ -3830,19 +3830,19 @@
         <v>3728</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1298</v>
+        <v>1227</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>9908</v>
+        <v>11854</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.01812633777090075</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.006312328209368857</v>
+        <v>0.00596624890683902</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.04817317379027012</v>
+        <v>0.05763511877665166</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>39</v>
@@ -3851,19 +3851,19 @@
         <v>17608</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>12637</v>
+        <v>12992</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>23101</v>
+        <v>23907</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.07775620939653743</v>
+        <v>0.07775620939653742</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.05580740581152945</v>
+        <v>0.05737545939936522</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1020176251508</v>
+        <v>0.1055747705927349</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>43</v>
@@ -3872,19 +3872,19 @@
         <v>21335</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>15492</v>
+        <v>15507</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>28860</v>
+        <v>28765</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04937505363703104</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.03585177223476217</v>
+        <v>0.03588790726834579</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06678885130129247</v>
+        <v>0.06656816631673136</v>
       </c>
     </row>
     <row r="18">
@@ -3976,19 +3976,19 @@
         <v>267307</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>262905</v>
+        <v>262076</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>269328</v>
+        <v>269118</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.9874418289961735</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.9711795508932825</v>
+        <v>0.9681159501608503</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.9949050117821875</v>
+        <v>0.994131993980942</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>400</v>
@@ -3997,19 +3997,19 @@
         <v>234775</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>227096</v>
+        <v>226496</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>241574</v>
+        <v>240537</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.8923438797694374</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8631583174944584</v>
+        <v>0.8608772543526647</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9181885873497724</v>
+        <v>0.9142469356040788</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>765</v>
@@ -4018,19 +4018,19 @@
         <v>502082</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>493211</v>
+        <v>493808</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>508964</v>
+        <v>509043</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.940570519225278</v>
+        <v>0.9405705192252779</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.9239515204701645</v>
+        <v>0.9250705820042954</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.9534630722255764</v>
+        <v>0.9536113963563184</v>
       </c>
     </row>
     <row r="20">
@@ -4047,19 +4047,19 @@
         <v>3400</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1379</v>
+        <v>1589</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7802</v>
+        <v>8631</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01255817100382654</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.005094988217812014</v>
+        <v>0.005868006019057985</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02882044910671746</v>
+        <v>0.03188404983914898</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>59</v>
@@ -4068,19 +4068,19 @@
         <v>28324</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>21525</v>
+        <v>22562</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>36003</v>
+        <v>36603</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1076561202305626</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08181141265022777</v>
+        <v>0.08575306439592116</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1368416825055418</v>
+        <v>0.1391227456473352</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>65</v>
@@ -4089,19 +4089,19 @@
         <v>31724</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>24842</v>
+        <v>24763</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>40595</v>
+        <v>39998</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.05942948077472213</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.04653692777442348</v>
+        <v>0.04638860364368168</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.07604847952983528</v>
+        <v>0.07492941799570449</v>
       </c>
     </row>
     <row r="21">
@@ -4193,19 +4193,19 @@
         <v>699949</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>686115</v>
+        <v>685370</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>707792</v>
+        <v>707807</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.9752388581324998</v>
+        <v>0.9752388581324997</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9559629988513388</v>
+        <v>0.954925860920799</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9861661361083019</v>
+        <v>0.9861862650408708</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>818</v>
@@ -4214,19 +4214,19 @@
         <v>663245</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>644822</v>
+        <v>644291</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>680445</v>
+        <v>679249</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.8622075686096455</v>
+        <v>0.8622075686096456</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8382578453449102</v>
+        <v>0.8375672258577249</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8845661580568477</v>
+        <v>0.883011418422631</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1400</v>
@@ -4235,19 +4235,19 @@
         <v>1363195</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1341277</v>
+        <v>1340510</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1383802</v>
+        <v>1381228</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9167650818568517</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9020252000093347</v>
+        <v>0.9015089740660147</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9306238848366759</v>
+        <v>0.9288923676469211</v>
       </c>
     </row>
     <row r="23">
@@ -4264,19 +4264,19 @@
         <v>17772</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>9929</v>
+        <v>9914</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>31606</v>
+        <v>32351</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.02476114186750017</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.01383386389169795</v>
+        <v>0.01381373495912905</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.04403700114866112</v>
+        <v>0.04507413907920083</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>138</v>
@@ -4285,19 +4285,19 @@
         <v>105996</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>88796</v>
+        <v>89992</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>124419</v>
+        <v>124950</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.1377924313903544</v>
+        <v>0.1377924313903543</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1154338419431524</v>
+        <v>0.1169885815773692</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1617421546550898</v>
+        <v>0.1624327741422752</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>153</v>
@@ -4306,19 +4306,19 @@
         <v>123767</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>103160</v>
+        <v>105734</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>145685</v>
+        <v>146452</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.08323491814314832</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.06937611516332404</v>
+        <v>0.07110763235307889</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.09797479999066531</v>
+        <v>0.09849102593398541</v>
       </c>
     </row>
     <row r="24">
@@ -4410,19 +4410,19 @@
         <v>782354</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>773271</v>
+        <v>773121</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>788898</v>
+        <v>789533</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.9803055002536756</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.9689243860301161</v>
+        <v>0.9687354863729098</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.9885046868862812</v>
+        <v>0.9892998552128888</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>969</v>
@@ -4431,19 +4431,19 @@
         <v>764599</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>748879</v>
+        <v>750195</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>776986</v>
+        <v>776775</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.9214283989789548</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.9024838589297184</v>
+        <v>0.9040689809213633</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.9363559608338472</v>
+        <v>0.9361014737357873</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1715</v>
@@ -4452,19 +4452,19 @@
         <v>1546954</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1531030</v>
+        <v>1529836</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1561214</v>
+        <v>1561760</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.950293204954717</v>
+        <v>0.9502932049547169</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.9405113707288936</v>
+        <v>0.9397776149849491</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.9590534650682586</v>
+        <v>0.9593887523558159</v>
       </c>
     </row>
     <row r="26">
@@ -4481,19 +4481,19 @@
         <v>15718</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>9174</v>
+        <v>8539</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>24801</v>
+        <v>24951</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01969449974632426</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01149531311371884</v>
+        <v>0.01070014478711121</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.0310756139698839</v>
+        <v>0.03126451362709018</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>91</v>
@@ -4502,19 +4502,19 @@
         <v>65199</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>52812</v>
+        <v>53023</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>80919</v>
+        <v>79603</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.07857160102104527</v>
+        <v>0.07857160102104528</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.06364403916615273</v>
+        <v>0.06389852626421269</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.09751614107028146</v>
+        <v>0.09593101907863676</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>107</v>
@@ -4523,19 +4523,19 @@
         <v>80916</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>66656</v>
+        <v>66110</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>96840</v>
+        <v>98034</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.04970679504528305</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.04094653493174137</v>
+        <v>0.04061124764418412</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.05948862927110674</v>
+        <v>0.06022238501505105</v>
       </c>
     </row>
     <row r="27">
@@ -4627,19 +4627,19 @@
         <v>3470234</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>3451242</v>
+        <v>3451386</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>3483641</v>
+        <v>3484197</v>
       </c>
       <c r="G28" s="6" t="n">
-        <v>0.9831225498896781</v>
+        <v>0.9831225498896778</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.9777422402798055</v>
+        <v>0.9777828645209837</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.9869208933519537</v>
+        <v>0.9870782885925955</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>4844</v>
@@ -4648,19 +4648,19 @@
         <v>3395057</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3360947</v>
+        <v>3363986</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>3421609</v>
+        <v>3422988</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.9104967318640419</v>
+        <v>0.9104967318640418</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.9013491632146399</v>
+        <v>0.9021641587499494</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.917617580266342</v>
+        <v>0.9179875042417182</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>8155</v>
@@ -4669,19 +4669,19 @@
         <v>6865290</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>6827562</v>
+        <v>6829127</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>6899276</v>
+        <v>6898057</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.94581415764254</v>
+        <v>0.9458141576425401</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.9406164512081905</v>
+        <v>0.9408319586964137</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.9504962021620234</v>
+        <v>0.9503282914556538</v>
       </c>
     </row>
     <row r="29">
@@ -4698,19 +4698,19 @@
         <v>59574</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>46167</v>
+        <v>45611</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>78566</v>
+        <v>78422</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.01687745011032194</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01307910664804666</v>
+        <v>0.01292171140740438</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.02225775972019574</v>
+        <v>0.02221713547901617</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>510</v>
@@ -4719,19 +4719,19 @@
         <v>333739</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>307187</v>
+        <v>305808</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>367849</v>
+        <v>364810</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.08950326813595813</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.08238241973365806</v>
+        <v>0.08201249575828187</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.0986508367853601</v>
+        <v>0.0978358412500507</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>572</v>
@@ -4740,19 +4740,19 @@
         <v>393314</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>359328</v>
+        <v>360547</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>431042</v>
+        <v>429477</v>
       </c>
       <c r="U29" s="6" t="n">
-        <v>0.05418584235746003</v>
+        <v>0.05418584235746004</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04950379783797668</v>
+        <v>0.04967170854434656</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.05938354879180969</v>
+        <v>0.05916804130358666</v>
       </c>
     </row>
     <row r="30">
